--- a/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976D1C0C-EBC4-4E4E-B29F-FE7905994BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B46F44-D2E7-4B32-8D6A-A49D45F0C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3948F579-EDA0-410C-9A7E-D175FAFD3112}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4EA6C5B1-AD19-46BF-B407-E1858A9A18D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>31,41%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
     <t>83,73%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>9,29%</t>
   </si>
   <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
     <t>75,56%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>30,22%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
     <t>87,31%</t>
   </si>
   <si>
@@ -578,6 +578,60 @@
     <t>9,55%</t>
   </si>
   <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
     <t>83,2%</t>
   </si>
   <si>
@@ -632,60 +686,6 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
     <t>85,18%</t>
   </si>
   <si>
@@ -776,6 +776,48 @@
     <t>7,04%</t>
   </si>
   <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
     <t>87,85%</t>
   </si>
   <si>
@@ -828,48 +870,6 @@
   </si>
   <si>
     <t>17,12%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
   </si>
   <si>
     <t>84,6%</t>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE7EA0D-6657-4548-BC42-61F1687418F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C29C22-CCC2-49A0-BADB-3968A6B48DC2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>41469</v>
+        <v>38255</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1591,10 +1591,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>34248</v>
+        <v>25832</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1606,10 +1606,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>75716</v>
+        <v>64087</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1627,10 +1627,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>13586</v>
+        <v>4135</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1642,10 +1642,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>10433</v>
+        <v>6871</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1657,10 +1657,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>24020</v>
+        <v>11006</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1678,10 +1678,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1693,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1708,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1731,10 +1731,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>38255</v>
+        <v>41469</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1746,10 +1746,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>25832</v>
+        <v>34248</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1761,10 +1761,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="N10" s="7">
-        <v>64087</v>
+        <v>75716</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1782,10 +1782,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>4135</v>
+        <v>13586</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1797,10 +1797,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>6871</v>
+        <v>10433</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1812,10 +1812,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>11006</v>
+        <v>24020</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1833,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1848,10 +1848,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A2A1B-E856-4E23-B21A-277D704BBDB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E0159-24E2-42DA-B964-D4DA0FCA58FB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2322,10 +2322,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>27903</v>
+        <v>49660</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2337,10 +2337,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>34045</v>
+        <v>39083</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2352,10 +2352,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>61947</v>
+        <v>88743</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2373,10 +2373,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>9024</v>
+        <v>7716</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2388,10 +2388,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>8307</v>
+        <v>6684</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2403,10 +2403,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>17332</v>
+        <v>14400</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2424,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>36927</v>
+        <v>57376</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2439,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2454,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N9" s="7">
-        <v>79279</v>
+        <v>103143</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2477,10 +2477,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>49660</v>
+        <v>27903</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2492,10 +2492,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>39083</v>
+        <v>34045</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2507,10 +2507,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>88743</v>
+        <v>61947</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2528,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>7716</v>
+        <v>9024</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2543,10 +2543,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>6684</v>
+        <v>8307</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2558,10 +2558,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>14400</v>
+        <v>17332</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2579,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57376</v>
+        <v>36927</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2594,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>103143</v>
+        <v>79279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E223F442-A023-4D0C-AF18-3AA4C4E025B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1381CB00-4FF0-46F5-8A1C-B15212D39673}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3068,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>34359</v>
+        <v>33176</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
@@ -3083,10 +3083,10 @@
         <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7">
-        <v>30005</v>
+        <v>35794</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>182</v>
@@ -3098,10 +3098,10 @@
         <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="N7" s="7">
-        <v>64364</v>
+        <v>68971</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>185</v>
@@ -3119,10 +3119,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>6938</v>
+        <v>8647</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>188</v>
@@ -3134,10 +3134,10 @@
         <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>7067</v>
+        <v>8838</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>191</v>
@@ -3149,10 +3149,10 @@
         <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>14005</v>
+        <v>17485</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>194</v>
@@ -3170,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3185,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +3223,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>33176</v>
+        <v>34359</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>197</v>
@@ -3238,10 +3238,10 @@
         <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>35794</v>
+        <v>30005</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>200</v>
@@ -3253,10 +3253,10 @@
         <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7">
-        <v>68971</v>
+        <v>64364</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
@@ -3274,10 +3274,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>8647</v>
+        <v>6938</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>206</v>
@@ -3289,10 +3289,10 @@
         <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8838</v>
+        <v>7067</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>209</v>
@@ -3304,10 +3304,10 @@
         <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>17485</v>
+        <v>14005</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>212</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3340,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3355,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3387,7 +3387,7 @@
         <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>216</v>
@@ -3441,7 +3441,7 @@
         <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3541,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E257BFE-BE1E-4524-9C08-2667E0B28C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449B312-2A75-408D-9DEF-C57B8B22DF99}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3814,10 +3814,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>74393</v>
+        <v>45444</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3829,34 +3829,34 @@
         <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>65432</v>
+        <v>47730</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>134</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93174</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="7">
-        <v>178</v>
-      </c>
-      <c r="N7" s="7">
-        <v>139825</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,49 +3865,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>10287</v>
+        <v>6543</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6873</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8178</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13416</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>18465</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3931,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3969,49 +3969,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>45444</v>
+        <v>74393</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
+        <v>84</v>
+      </c>
+      <c r="I10" s="7">
+        <v>65432</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>178</v>
+      </c>
+      <c r="N10" s="7">
+        <v>139825</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="7">
-        <v>71</v>
-      </c>
-      <c r="I10" s="7">
-        <v>47730</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="M10" s="7">
-        <v>134</v>
-      </c>
-      <c r="N10" s="7">
-        <v>93174</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,43 +4020,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>6543</v>
+        <v>10287</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8178</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6873</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>18465</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13416</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>275</v>
@@ -4071,10 +4071,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4086,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4145,7 +4145,7 @@
         <v>139361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>279</v>
@@ -4196,7 +4196,7 @@
         <v>15051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>286</v>

--- a/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B46F44-D2E7-4B32-8D6A-A49D45F0C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA55363-866F-4421-B7EB-55F04D9B99CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4EA6C5B1-AD19-46BF-B407-E1858A9A18D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B34427D-5678-4F4E-9FD6-8E6F2319C11E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,850 +68,1042 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>87,76%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>92,62%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1114,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1018,39 +1210,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1102,7 +1294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1213,13 +1405,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1228,6 +1413,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1292,19 +1484,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C29C22-CCC2-49A0-BADB-3968A6B48DC2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB443272-BD23-4FCB-8496-B73356BCC72A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1421,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>40784</v>
+        <v>3642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1436,10 +1648,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>45860</v>
+        <v>711</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1451,10 +1663,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>86644</v>
+        <v>4353</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1472,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>5690</v>
+        <v>26013</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1487,10 +1699,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>2061</v>
+        <v>28324</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1502,10 +1714,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>7751</v>
+        <v>54337</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1523,10 +1735,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1538,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1553,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1576,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>38255</v>
+        <v>5605</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1591,10 +1803,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>25832</v>
+        <v>6734</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1606,10 +1818,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>64087</v>
+        <v>12339</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1627,10 +1839,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7">
-        <v>4135</v>
+        <v>45355</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1642,10 +1854,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I8" s="7">
-        <v>6871</v>
+        <v>36487</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1657,10 +1869,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="N8" s="7">
-        <v>11006</v>
+        <v>81842</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1678,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1693,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1731,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>41469</v>
+        <v>5166</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1746,10 +1958,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>34248</v>
+        <v>5642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1761,10 +1973,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>75716</v>
+        <v>10808</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1782,10 +1994,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>13586</v>
+        <v>18700</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1797,10 +2009,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>10433</v>
+        <v>16865</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1812,10 +2024,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>24020</v>
+        <v>35565</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1833,10 +2045,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1848,10 +2060,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1880,55 +2092,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>120508</v>
+        <v>8998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>105939</v>
+        <v>6279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>226448</v>
+        <v>15277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,49 +2149,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>23411</v>
+        <v>30440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>19366</v>
+        <v>24264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="7">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>61</v>
-      </c>
       <c r="N14" s="7">
-        <v>42776</v>
+        <v>54704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,55 +2200,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23411</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19366</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>61</v>
+      </c>
+      <c r="N16" s="7">
+        <v>42776</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>181</v>
+      </c>
+      <c r="D17" s="7">
+        <v>120508</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>163</v>
+      </c>
+      <c r="I17" s="7">
+        <v>105939</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>344</v>
+      </c>
+      <c r="N17" s="7">
+        <v>226448</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2049,8 +2422,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E0159-24E2-42DA-B964-D4DA0FCA58FB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD1C7D3-0FDB-4FDB-BF51-32B701CAE542}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2066,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2167,49 +2540,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>60359</v>
+        <v>628</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>56335</v>
+        <v>1246</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>116696</v>
+        <v>1874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,49 +2591,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>3304</v>
+        <v>37798</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>2767</v>
+        <v>35251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="N5" s="7">
-        <v>6070</v>
+        <v>73049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2284,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>59102</v>
+        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2672,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>122766</v>
+        <v>74923</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2322,49 +2695,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>49660</v>
+        <v>5451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>39083</v>
+        <v>4783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>88743</v>
+        <v>10234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,49 +2746,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>7716</v>
+        <v>61306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>6684</v>
+        <v>48902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="N8" s="7">
-        <v>14400</v>
+        <v>110208</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,10 +2797,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>57376</v>
+        <v>66757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2812,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>53685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2827,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="N9" s="7">
-        <v>103143</v>
+        <v>120442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2477,49 +2850,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>27903</v>
+        <v>7942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>34045</v>
+        <v>5536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>61947</v>
+        <v>13477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,49 +2901,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>9024</v>
+        <v>19973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>8307</v>
+        <v>24334</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>17332</v>
+        <v>44308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,10 +2952,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2967,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>42352</v>
+        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2982,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7">
-        <v>79279</v>
+        <v>57785</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2626,55 +2999,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>137922</v>
+        <v>6024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>129463</v>
+        <v>6193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>267385</v>
+        <v>12217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,46 +3059,46 @@
         <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>20044</v>
+        <v>18844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>17758</v>
+        <v>20976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>37802</v>
+        <v>39820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,55 +3107,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20044</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17758</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="7">
+        <v>53</v>
+      </c>
+      <c r="N16" s="7">
+        <v>37802</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>194</v>
+      </c>
+      <c r="D17" s="7">
+        <v>137922</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
+        <v>187</v>
+      </c>
+      <c r="I17" s="7">
+        <v>129463</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="7">
+        <v>381</v>
+      </c>
+      <c r="N17" s="7">
+        <v>267385</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>222</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>157966</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>212</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>147221</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>434</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>305187</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2795,8 +3329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1381CB00-4FF0-46F5-8A1C-B15212D39673}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E72E56-72CC-4BB7-A9A4-5AA45A4F8A28}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2812,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2913,49 +3447,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>37466</v>
+        <v>1998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>44038</v>
+        <v>1174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>81504</v>
+        <v>3172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,49 +3498,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>2690</v>
+        <v>21978</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>1718</v>
+        <v>25859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>4408</v>
+        <v>47837</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3030,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3045,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3068,49 +3602,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>33176</v>
+        <v>5329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>35794</v>
+        <v>2406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>68971</v>
+        <v>7734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,49 +3653,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>8647</v>
+        <v>37767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>8838</v>
+        <v>39833</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="N8" s="7">
-        <v>17485</v>
+        <v>77601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,10 +3704,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3185,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3734,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3223,49 +3757,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>34359</v>
+        <v>6348</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>30005</v>
+        <v>8734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>64364</v>
+        <v>15082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,49 +3808,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>6938</v>
+        <v>27098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>7067</v>
+        <v>27390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N11" s="7">
-        <v>14005</v>
+        <v>54488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3343,7 +3877,7 @@
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3355,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3372,55 +3906,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>105001</v>
+        <v>4600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>109838</v>
+        <v>5310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>214839</v>
+        <v>9910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,49 +3963,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>18275</v>
+        <v>18158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>17623</v>
+        <v>16755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>35898</v>
+        <v>34913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,55 +4014,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18275</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="7">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17623</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="7">
+        <v>50</v>
+      </c>
+      <c r="N16" s="7">
+        <v>35898</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>153</v>
+      </c>
+      <c r="D17" s="7">
+        <v>105001</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
+        <v>168</v>
+      </c>
+      <c r="I17" s="7">
+        <v>109838</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M17" s="7">
+        <v>321</v>
+      </c>
+      <c r="N17" s="7">
+        <v>214839</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3541,8 +4236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449B312-2A75-408D-9DEF-C57B8B22DF99}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB58E7B4-8828-42DE-9FC3-86B0CB2BFE60}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3558,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3659,49 +4354,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>34748</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>26198</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>60946</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,49 +4405,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>1122</v>
+        <v>20935</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>15942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>1122</v>
+        <v>36877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,40 +4456,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3814,49 +4509,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>45444</v>
+        <v>5765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>47730</v>
+        <v>3617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>93174</v>
+        <v>9382</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,49 +4560,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>6543</v>
+        <v>40237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>6873</v>
+        <v>41127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="N8" s="7">
-        <v>13416</v>
+        <v>81364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3931,10 +4626,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3969,49 +4664,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>74393</v>
+        <v>4897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>65432</v>
+        <v>5483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>139825</v>
+        <v>10380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,49 +4715,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>10287</v>
+        <v>38686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>8178</v>
+        <v>31420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>18465</v>
+        <v>70106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4086,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4796,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4118,55 +4813,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>154586</v>
+        <v>7289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>139361</v>
+        <v>5950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
-        <v>433</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>293946</v>
+        <v>13240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,49 +4870,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>17951</v>
+        <v>54727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>15051</v>
+        <v>50872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="N14" s="7">
-        <v>33002</v>
+        <v>105599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,55 +4921,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17951</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15051</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>43</v>
+      </c>
+      <c r="N16" s="7">
+        <v>33002</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>227</v>
+      </c>
+      <c r="D17" s="7">
+        <v>154586</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="7">
+        <v>206</v>
+      </c>
+      <c r="I17" s="7">
+        <v>139361</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="7">
+        <v>433</v>
+      </c>
+      <c r="N17" s="7">
+        <v>293946</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA55363-866F-4421-B7EB-55F04D9B99CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BA1B01-055D-45B4-80D4-52491FADB8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B34427D-5678-4F4E-9FD6-8E6F2319C11E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B9E5FE7-EA5C-40F0-95A2-24D5B87F9096}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="351">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>12,28%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,88%</t>
+    <t>12,99%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>87,72%</t>
   </si>
   <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>86,12%</t>
+    <t>87,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>21,65%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,73 +254,73 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>15,89%</t>
@@ -329,31 +329,31 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>19,79%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>80,21%</t>
   </si>
   <si>
     <t>87,52%</t>
@@ -368,313 +368,307 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>71,55%</t>
   </si>
   <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>34,2%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>65,8%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>5,7%</t>
@@ -683,7 +677,7 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>16,6%</t>
+    <t>17,24%</t>
   </si>
   <si>
     <t>9,06%</t>
@@ -692,22 +686,22 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>15,61%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>83,4%</t>
+    <t>82,76%</t>
   </si>
   <si>
     <t>98,69%</t>
@@ -716,7 +710,7 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>84,39%</t>
+    <t>84,75%</t>
   </si>
   <si>
     <t>95,39%</t>
@@ -725,151 +719,163 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>78,32%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,98%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>86,17%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>89,02%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
@@ -899,211 +905,193 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>17,35%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>19,8%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>80,2%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>13,36%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>86,64%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB443272-BD23-4FCB-8496-B73356BCC72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F156E085-1AD8-45A1-94BE-92AC4DE6617C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2422,7 +2410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD1C7D3-0FDB-4FDB-BF51-32B701CAE542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB89C7-81F2-4975-BE9B-32CC7CECDA12}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2561,13 +2549,13 @@
         <v>1246</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2576,13 +2564,13 @@
         <v>1874</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,10 +2585,10 @@
         <v>37798</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -2612,10 +2600,10 @@
         <v>35251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2627,13 +2615,13 @@
         <v>73049</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2689,13 @@
         <v>5451</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2716,13 +2704,13 @@
         <v>4783</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2731,13 +2719,13 @@
         <v>10234</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2740,13 @@
         <v>61306</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -2767,13 +2755,13 @@
         <v>48902</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>155</v>
@@ -2782,13 +2770,13 @@
         <v>110208</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2844,13 @@
         <v>7942</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2871,13 +2859,13 @@
         <v>5536</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2886,13 +2874,13 @@
         <v>13477</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2895,13 @@
         <v>19973</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -2922,13 +2910,13 @@
         <v>24334</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -2937,13 +2925,13 @@
         <v>44308</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2999,13 @@
         <v>6024</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3026,13 +3014,13 @@
         <v>6193</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3041,13 +3029,13 @@
         <v>12217</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3050,13 @@
         <v>18844</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3077,13 +3065,13 @@
         <v>20976</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3092,13 +3080,13 @@
         <v>39820</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E72E56-72CC-4BB7-A9A4-5AA45A4F8A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F20342-E66A-4C8C-8B67-977EE159AF3F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,13 +3471,13 @@
         <v>3172</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3492,13 @@
         <v>21978</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3519,10 +3507,10 @@
         <v>25859</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3534,13 +3522,13 @@
         <v>47837</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3596,13 @@
         <v>5329</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3623,13 +3611,13 @@
         <v>2406</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3638,13 +3626,13 @@
         <v>7734</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3647,13 @@
         <v>37767</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -3674,13 +3662,13 @@
         <v>39833</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -3689,13 +3677,13 @@
         <v>77601</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3751,13 @@
         <v>6348</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3778,13 +3766,13 @@
         <v>8734</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3793,13 +3781,13 @@
         <v>15082</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3802,13 @@
         <v>27098</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -3829,13 +3817,13 @@
         <v>27390</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3844,13 +3832,13 @@
         <v>54488</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3906,13 @@
         <v>4600</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3933,13 +3921,13 @@
         <v>5310</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3948,13 +3936,13 @@
         <v>9910</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3957,13 @@
         <v>18158</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3984,13 +3972,13 @@
         <v>16755</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3999,13 +3987,13 @@
         <v>34913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4061,13 @@
         <v>18275</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4088,13 +4076,13 @@
         <v>17623</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4103,13 +4091,13 @@
         <v>35898</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,10 +4130,10 @@
         <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -4154,13 +4142,13 @@
         <v>214839</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB58E7B4-8828-42DE-9FC3-86B0CB2BFE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF71CAC0-798F-4270-98DB-37B8F5D53E34}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4253,7 +4241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4363,10 +4351,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4378,10 +4366,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4393,10 +4381,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4402,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -4429,7 +4417,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4444,7 +4432,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -4515,13 +4503,13 @@
         <v>5765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4530,13 +4518,13 @@
         <v>3617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4545,13 +4533,13 @@
         <v>9382</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4554,13 @@
         <v>40237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -4581,13 +4569,13 @@
         <v>41127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>134</v>
@@ -4596,13 +4584,13 @@
         <v>81364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4658,13 @@
         <v>4897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4685,13 +4673,13 @@
         <v>5483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4700,13 +4688,13 @@
         <v>10380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4709,13 @@
         <v>38686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -4736,13 +4724,13 @@
         <v>31420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -4751,13 +4739,13 @@
         <v>70106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4813,13 @@
         <v>7289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4840,13 +4828,13 @@
         <v>5950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4855,13 +4843,13 @@
         <v>13240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4864,13 @@
         <v>54727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4891,13 +4879,13 @@
         <v>50872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -4906,13 +4894,13 @@
         <v>105599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4968,13 @@
         <v>17951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4995,13 +4983,13 @@
         <v>15051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5013,10 +5001,10 @@
         <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5019,13 @@
         <v>154586</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -5046,13 +5034,13 @@
         <v>139361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -5061,13 +5049,13 @@
         <v>293946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BA1B01-055D-45B4-80D4-52491FADB8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EF156A-26B7-4A54-87E9-5A9DCBCF71B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B9E5FE7-EA5C-40F0-95A2-24D5B87F9096}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{75EB207F-4F82-449D-8BE1-53B43EDEC175}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1024 +74,1036 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>93,55%</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F156E085-1AD8-45A1-94BE-92AC4DE6617C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5773567-924F-4F9C-BCFE-B2577AF55F61}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1621,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3642</v>
+        <v>711</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1636,10 +1648,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>711</v>
+        <v>3642</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1672,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>26013</v>
+        <v>28324</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1687,10 +1699,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>28324</v>
+        <v>26013</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1723,25 +1735,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1776,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>5605</v>
+        <v>6734</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1791,10 +1803,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>6734</v>
+        <v>5605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1827,10 +1839,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>45355</v>
+        <v>36487</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1842,10 +1854,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>36487</v>
+        <v>45355</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1878,25 +1890,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1934,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>5166</v>
+        <v>5642</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1949,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>5642</v>
+        <v>5166</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1982,10 +1994,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>18700</v>
+        <v>16865</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1997,10 +2009,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>16865</v>
+        <v>18700</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2033,25 +2045,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2086,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>8998</v>
+        <v>6279</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2101,10 +2113,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>6279</v>
+        <v>8998</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2137,10 +2149,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>30440</v>
+        <v>24264</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2152,10 +2164,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>24264</v>
+        <v>30440</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2188,25 +2200,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2241,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>23411</v>
+        <v>19366</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2256,10 +2268,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>19366</v>
+        <v>23411</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2292,10 +2304,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D17" s="7">
-        <v>120508</v>
+        <v>105939</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2307,10 +2319,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I17" s="7">
-        <v>105939</v>
+        <v>120508</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2343,25 +2355,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2410,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB89C7-81F2-4975-BE9B-32CC7CECDA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E9844-DA27-4343-B073-A2EB0422C5CE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,34 +2540,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>628</v>
+        <v>1246</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1246</v>
+        <v>628</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2564,13 +2576,13 @@
         <v>1874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,31 +2594,31 @@
         <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>37798</v>
+        <v>35251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>35251</v>
+        <v>37798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>106</v>
@@ -2615,13 +2627,13 @@
         <v>73049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,25 +2642,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38426</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2683,34 +2695,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4783</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5451</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4783</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2719,13 +2731,13 @@
         <v>10234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,34 +2746,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7">
+        <v>48902</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
         <v>85</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>61306</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="7">
-        <v>70</v>
-      </c>
-      <c r="I8" s="7">
-        <v>48902</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>155</v>
@@ -2770,13 +2782,13 @@
         <v>110208</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,25 +2797,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53685</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>93</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>66757</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2838,34 +2850,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5536</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7942</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5536</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2874,13 +2886,13 @@
         <v>13477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,34 +2901,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7">
+        <v>24334</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="7">
         <v>28</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>19973</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="7">
-        <v>34</v>
-      </c>
-      <c r="I11" s="7">
-        <v>24334</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -2925,13 +2937,13 @@
         <v>44308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,25 +2952,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27915</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2993,34 +3005,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6193</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6024</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6193</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3029,13 +3041,13 @@
         <v>12217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,34 +3056,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20976</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="7">
         <v>28</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>18844</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20976</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3080,13 +3092,13 @@
         <v>39820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,25 +3107,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24868</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3148,34 +3160,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17758</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20044</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17758</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3184,13 +3196,13 @@
         <v>37802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,34 +3211,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>187</v>
+      </c>
+      <c r="D17" s="7">
+        <v>129463</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
         <v>194</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>137922</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="7">
-        <v>187</v>
-      </c>
-      <c r="I17" s="7">
-        <v>129463</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -3235,13 +3247,13 @@
         <v>267385</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,25 +3262,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>147221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>222</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147221</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3317,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F20342-E66A-4C8C-8B67-977EE159AF3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6D2EC4-BDF3-47CA-B7F6-3DE646916A01}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3334,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3435,34 +3447,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1174</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1998</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1174</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3471,13 +3483,13 @@
         <v>3172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,34 +3498,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25859</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>35</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>21978</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="7">
-        <v>42</v>
-      </c>
-      <c r="I5" s="7">
-        <v>25859</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3522,13 +3534,13 @@
         <v>47837</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,25 +3549,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3590,34 +3602,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2406</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5329</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2406</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3626,13 +3638,13 @@
         <v>7734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,34 +3653,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39833</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="7">
         <v>55</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>37767</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="7">
-        <v>62</v>
-      </c>
-      <c r="I8" s="7">
-        <v>39833</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -3677,13 +3689,13 @@
         <v>77601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,25 +3704,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3745,34 +3757,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8734</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6348</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8734</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3781,13 +3793,13 @@
         <v>15082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,34 +3808,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7">
+        <v>27390</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="7">
         <v>38</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>27098</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="7">
-        <v>40</v>
-      </c>
-      <c r="I11" s="7">
-        <v>27390</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3832,13 +3844,13 @@
         <v>54488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,25 +3859,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3900,34 +3912,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5310</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4600</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5310</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3936,13 +3948,13 @@
         <v>9910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,34 +3963,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16755</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="7">
         <v>25</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>18158</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16755</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3987,13 +3999,13 @@
         <v>34913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4032,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4055,34 +4067,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17623</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>26</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>18275</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17623</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4091,13 +4103,13 @@
         <v>35898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,34 +4118,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>168</v>
+      </c>
+      <c r="D17" s="7">
+        <v>109838</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="7">
         <v>153</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>105001</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="7">
-        <v>168</v>
-      </c>
-      <c r="I17" s="7">
-        <v>109838</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -4142,13 +4154,13 @@
         <v>214839</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,25 +4169,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4224,7 +4236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF71CAC0-798F-4270-98DB-37B8F5D53E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FD72A4-D3E8-422C-B543-1F59F545D620}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4241,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4348,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4363,13 +4375,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4378,13 +4390,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,31 +4405,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
         <v>42</v>
       </c>
-      <c r="D5" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
       <c r="I5" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4426,13 +4438,13 @@
         <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -4444,25 +4456,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4477,7 +4489,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4497,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3584</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
-        <v>5765</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
       <c r="I7" s="7">
-        <v>3617</v>
+        <v>6189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>291</v>
@@ -4530,7 +4542,7 @@
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>9382</v>
+        <v>9773</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>293</v>
@@ -4551,7 +4563,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>40237</v>
+        <v>43039</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>296</v>
@@ -4560,37 +4572,37 @@
         <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>41127</v>
+        <v>42795</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>134</v>
       </c>
       <c r="N8" s="7">
-        <v>81364</v>
+        <v>85834</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,25 +4611,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4632,7 +4644,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4652,49 +4664,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5577</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>4897</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>5002</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5483</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10380</v>
+        <v>10578</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,49 +4715,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7">
+        <v>31574</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="7">
         <v>50</v>
       </c>
-      <c r="D11" s="7">
-        <v>38686</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>41167</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H11" s="7">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7">
-        <v>31420</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>70106</v>
+        <v>72742</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,25 +4766,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4787,7 +4799,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4807,49 +4819,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5826</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
-        <v>7289</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>7419</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5950</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>13240</v>
+        <v>13244</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,40 +4870,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7">
+        <v>72131</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="7">
         <v>68</v>
       </c>
-      <c r="D14" s="7">
-        <v>54727</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>57273</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H14" s="7">
-        <v>63</v>
-      </c>
-      <c r="I14" s="7">
-        <v>50872</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
       </c>
       <c r="N14" s="7">
-        <v>105599</v>
+        <v>129405</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>336</v>
@@ -4909,25 +4921,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4942,7 +4954,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4962,49 +4974,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>17951</v>
+        <v>14986</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7">
+        <v>18609</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15051</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>33002</v>
+        <v>33595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5025,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>206</v>
+      </c>
+      <c r="D17" s="7">
+        <v>162729</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="7">
         <v>227</v>
       </c>
-      <c r="D17" s="7">
-        <v>154586</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H17" s="7">
-        <v>206</v>
-      </c>
       <c r="I17" s="7">
-        <v>139361</v>
+        <v>163592</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
       </c>
       <c r="N17" s="7">
-        <v>293946</v>
+        <v>326321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,25 +5076,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5097,7 +5109,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
